--- a/Testdata_inout2.xlsx
+++ b/Testdata_inout2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="16" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -153,7 +153,10 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2172,7 +2175,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2241,7 +2244,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-20</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0</c:v>
@@ -2265,7 +2268,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-20</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0</c:v>
@@ -2457,7 +2460,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>0</c:v>
@@ -2496,7 +2499,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>0</c:v>
@@ -2532,7 +2535,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>0</c:v>
@@ -3563,10 +3566,10 @@
                   <c:v>41.190477879574622</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="158">
                   <c:v>47.341373364459344</c:v>
@@ -4568,22 +4571,22 @@
                   <c:v>39.461573196976687</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>35.841392541400978</c:v>
+                  <c:v>48.341392541400978</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>32.123415232300033</c:v>
+                  <c:v>57.123415232299983</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>38.312436696852217</c:v>
+                  <c:v>50.812436696852217</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>40.703405201760461</c:v>
+                  <c:v>53.203405201760432</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>37.528181568294713</c:v>
+                  <c:v>62.528181568294599</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>43.757554156890478</c:v>
+                  <c:v>56.257554156890478</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>50.198078575940542</c:v>
@@ -4711,7 +4714,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4722,7 +4725,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4784,7 +4787,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Fred_Miriam" refreshedDate="44770.82667534722" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="169">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Fred_Miriam" refreshedDate="44770.830353356483" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="169">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:O170" sheet="Sheet4" r:id="rId2"/>
   </cacheSource>
@@ -4963,7 +4966,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Regr_value" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-14.513795325666081" maxValue="51.163051554835427"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-14.513795325666081" maxValue="62.528181568294599"/>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
@@ -4975,10 +4978,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.457041501640974E-2" maxValue="52.850733324816566"/>
     </cacheField>
     <cacheField name="spike" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-20" maxValue="20"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-10" maxValue="10"/>
     </cacheField>
     <cacheField name="spikevalue" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-14.70521977986731" maxValue="51.857886552931951"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-14.70521977986731" maxValue="75"/>
     </cacheField>
     <cacheField name="Slope" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-102.98682100438209" maxValue="102.57727590733511"/>
@@ -4990,10 +4993,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.3001508658562244E-3" maxValue="130.99877111911641"/>
     </cacheField>
     <cacheField name="Regr_value_plus_std" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-13.820805305882301" maxValue="1319.0849132168771"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-13.89365738096434" maxValue="1054.8312465927941"/>
     </cacheField>
     <cacheField name="Regr_value_min_std" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1323.4517530239509" maxValue="40.961166173839139"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1059.1980863998681" maxValue="43.001543250038402"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5019,8 +5022,8 @@
     <n v="0.1063407109762014"/>
     <n v="7.3098405832800832"/>
     <n v="0.40579011996261899"/>
-    <n v="12.07639622418159"/>
-    <n v="0.15061894541404899"/>
+    <n v="10.88381849630483"/>
+    <n v="1.3431966732908029"/>
   </r>
   <r>
     <x v="1"/>
@@ -5035,8 +5038,8 @@
     <n v="-1.180016306816998"/>
     <n v="-7.0101501361818874"/>
     <n v="0.42517864110662268"/>
-    <n v="12.21183196007596"/>
-    <n v="-0.27177348246577893"/>
+    <n v="10.96347141582179"/>
+    <n v="0.97658706178839516"/>
   </r>
   <r>
     <x v="2"/>
@@ -5051,8 +5054,8 @@
     <n v="-2.424878072722203"/>
     <n v="-20.52577622531701"/>
     <n v="0.37838852362997782"/>
-    <n v="11.120746472237631"/>
-    <n v="-3.7420359344290333E-2"/>
+    <n v="10.004929789079441"/>
+    <n v="1.078396323813902"/>
   </r>
   <r>
     <x v="3"/>
@@ -5067,8 +5070,8 @@
     <n v="-3.4364023493550091"/>
     <n v="-31.22354443660236"/>
     <n v="0.27400494297673639"/>
-    <n v="8.9670700419252611"/>
-    <n v="0.75029042132519574"/>
+    <n v="8.145392079865255"/>
+    <n v="1.5719683833852021"/>
   </r>
   <r>
     <x v="4"/>
@@ -5083,8 +5086,8 @@
     <n v="-4.0625690463329107"/>
     <n v="-37.651102821377307"/>
     <n v="0.1292315629775338"/>
-    <n v="6.1407701732239239"/>
-    <n v="1.8396896338461239"/>
+    <n v="5.7106621192861438"/>
+    <n v="2.2697976877839041"/>
   </r>
   <r>
     <x v="5"/>
@@ -5099,8 +5102,8 @@
     <n v="-4.2135423830957954"/>
     <n v="-39.10249233099951"/>
     <n v="3.2931499958445798E-2"/>
-    <n v="4.1708292307279997"/>
-    <n v="1.895033769188889"/>
+    <n v="3.9432496845740879"/>
+    <n v="2.1226133153428002"/>
   </r>
   <r>
     <x v="6"/>
@@ -5115,8 +5118,8 @@
     <n v="-3.8740130227520182"/>
     <n v="-35.676100745778683"/>
     <n v="0.18734336659200099"/>
-    <n v="4.9865817456205548"/>
-    <n v="-0.79552929351356738"/>
+    <n v="4.4083706417071422"/>
+    <n v="-0.21731818960015531"/>
   </r>
   <r>
     <x v="7"/>
@@ -5131,8 +5134,8 @@
     <n v="-3.103830643254847"/>
     <n v="-28.204363747334671"/>
     <n v="0.31063086432862258"/>
-    <n v="5.8849075422266486"/>
-    <n v="-3.3208528150538958"/>
+    <n v="4.9643315064985938"/>
+    <n v="-2.400276779325841"/>
   </r>
   <r>
     <x v="8"/>
@@ -5147,8 +5150,8 @@
     <n v="-2.0270791730665172"/>
     <n v="-18.074494518441121"/>
     <n v="0.38474089398050548"/>
-    <n v="6.3320857108740496"/>
-    <n v="-4.9801100460257244"/>
+    <n v="5.2008661351840706"/>
+    <n v="-3.8488904703357458"/>
   </r>
   <r>
     <x v="9"/>
@@ -5163,8 +5166,8 @@
     <n v="-0.81152942793790861"/>
     <n v="-6.9754904068093948"/>
     <n v="0.39959478819142502"/>
-    <n v="6.199261960076484"/>
-    <n v="-5.5427130708129191"/>
+    <n v="5.0250644569875433"/>
+    <n v="-4.3685155677239784"/>
   </r>
   <r>
     <x v="10"/>
@@ -5179,8 +5182,8 @@
     <n v="0.35814841691402161"/>
     <n v="3.3839436219563681"/>
     <n v="0.35445265942163418"/>
-    <n v="5.4814148471868513"/>
-    <n v="-4.9811248992694939"/>
+    <n v="4.4351608725412168"/>
+    <n v="-3.9348709246238589"/>
   </r>
   <r>
     <x v="11"/>
@@ -5195,8 +5198,8 @@
     <n v="1.3091358588977069"/>
     <n v="11.54022061204037"/>
     <n v="0.25780378512118318"/>
-    <n v="4.2798250499498884"/>
-    <n v="-3.4546934271301728"/>
+    <n v="3.506373202241881"/>
+    <n v="-2.6812415794221671"/>
   </r>
   <r>
     <x v="12"/>
@@ -5211,8 +5214,8 @@
     <n v="1.9066918097942129"/>
     <n v="16.481930538489721"/>
     <n v="0.12583183302544221"/>
-    <n v="2.8202590965644219"/>
-    <n v="-1.3168128811894859"/>
+    <n v="2.4065518987890311"/>
+    <n v="-0.90310568341409536"/>
   </r>
   <r>
     <x v="13"/>
@@ -5227,8 +5230,8 @@
     <n v="2.0738542200842431"/>
     <n v="17.770558206833389"/>
     <n v="2.0275553840560789E-2"/>
-    <n v="2.1480849940539768"/>
-    <n v="0.2113638982649039"/>
+    <n v="1.954412884475069"/>
+    <n v="0.40503600784381111"/>
   </r>
   <r>
     <x v="14"/>
@@ -5243,8 +5246,8 @@
     <n v="1.801720917127061"/>
     <n v="15.562046330888309"/>
     <n v="0.15772886677056339"/>
-    <n v="4.0384219346205574"/>
-    <n v="-0.841003488313389"/>
+    <n v="3.550479392327162"/>
+    <n v="-0.35306094601999449"/>
   </r>
   <r>
     <x v="15"/>
@@ -5259,8 +5262,8 @@
     <n v="1.148943408415674"/>
     <n v="10.533177064992691"/>
     <n v="0.26570489188778978"/>
-    <n v="5.8477450465066614"/>
-    <n v="-2.0155420427564068"/>
+    <n v="5.0614163375803551"/>
+    <n v="-1.2292133338300999"/>
   </r>
   <r>
     <x v="16"/>
@@ -5275,8 +5278,8 @@
     <n v="0.2307785109825318"/>
     <n v="3.731762518601935"/>
     <n v="0.32852091021081442"/>
-    <n v="6.8817566826994003"/>
-    <n v="-2.7645200547422402"/>
+    <n v="5.9171290089552357"/>
+    <n v="-1.799892380998076"/>
   </r>
   <r>
     <x v="17"/>
@@ -5291,8 +5294,8 @@
     <n v="-0.80033687043142032"/>
     <n v="-3.619457949222245"/>
     <n v="0.33792854958927249"/>
-    <n v="6.9434558428991702"/>
-    <n v="-2.977655555303774"/>
+    <n v="5.9513447030788758"/>
+    <n v="-1.9855444154834789"/>
   </r>
   <r>
     <x v="18"/>
@@ -5307,8 +5310,8 @@
     <n v="-1.779444805200828"/>
     <n v="-10.33004170481626"/>
     <n v="0.29418934855095952"/>
-    <n v="6.0236635330701924"/>
-    <n v="-2.66124207249154"/>
+    <n v="5.155172972514019"/>
+    <n v="-1.792751511935367"/>
   </r>
   <r>
     <x v="19"/>
@@ -5323,8 +5326,8 @@
     <n v="-2.554974936172592"/>
     <n v="-15.425874860769349"/>
     <n v="0.20579265404569561"/>
-    <n v="4.2819982033191044"/>
-    <n v="-1.9190737546141019"/>
+    <n v="3.6618910075257829"/>
+    <n v="-1.2989665588207819"/>
   </r>
   <r>
     <x v="20"/>
@@ -5339,8 +5342,8 @@
     <n v="-3.0118190779065159"/>
     <n v="-18.282142079942052"/>
     <n v="8.7892968209068112E-2"/>
-    <n v="2.0680699232062119"/>
-    <n v="-0.98461560925885538"/>
+    <n v="1.7628013699597049"/>
+    <n v="-0.67934705601234846"/>
   </r>
   <r>
     <x v="21"/>
@@ -5355,8 +5358,8 @@
     <n v="-3.0880336364938472"/>
     <n v="-18.687945635392751"/>
     <n v="4.0256183570333032E-2"/>
-    <n v="0.83329904595597204"/>
-    <n v="-1.1527866788153069"/>
+    <n v="0.63469047347884411"/>
+    <n v="-0.95417810633817934"/>
   </r>
   <r>
     <x v="22"/>
@@ -5371,8 +5374,8 @@
     <n v="-2.7827224134829249"/>
     <n v="-16.837957561643339"/>
     <n v="0.15844264522723739"/>
-    <n v="1.578867590694885"/>
-    <n v="-3.2534749589279328"/>
+    <n v="1.0956333357326029"/>
+    <n v="-2.7702407039656509"/>
   </r>
   <r>
     <x v="23"/>
@@ -5387,8 +5390,8 @@
     <n v="-2.154104901007039"/>
     <n v="-13.25898097581895"/>
     <n v="0.24869991967562519"/>
-    <n v="2.2626079509411081"/>
-    <n v="-5.0854159915015753"/>
+    <n v="1.52780555669684"/>
+    <n v="-4.3506135972573068"/>
   </r>
   <r>
     <x v="24"/>
@@ -5403,8 +5406,8 @@
     <n v="-1.308352078030125"/>
     <n v="-8.6895129299584202"/>
     <n v="0.2980664013927159"/>
-    <n v="2.5564288376027089"/>
-    <n v="-6.1977578782032392"/>
+    <n v="1.6810101660221139"/>
+    <n v="-5.3223392066226438"/>
   </r>
   <r>
     <x v="25"/>
@@ -5419,8 +5422,8 @@
     <n v="-0.38122020950887792"/>
     <n v="-3.9367670513558681"/>
     <n v="0.30047282627271171"/>
-    <n v="2.384750297148281"/>
-    <n v="-6.4460823047712381"/>
+    <n v="1.501667036956329"/>
+    <n v="-5.5629990445792856"/>
   </r>
   <r>
     <x v="26"/>
@@ -5435,8 +5438,8 @@
     <n v="0.48439446366110761"/>
     <n v="0.26268442868381747"/>
     <n v="0.25747970811080823"/>
-    <n v="1.769702504615797"/>
-    <n v="-5.8460810520286826"/>
+    <n v="1.0081241489513491"/>
+    <n v="-5.0845026963642352"/>
   </r>
   <r>
     <x v="27"/>
@@ -5451,8 +5454,8 @@
     <n v="1.161287788286741"/>
     <n v="3.3554113014977771"/>
     <n v="0.1777764259872652"/>
-    <n v="0.81687132805881912"/>
-    <n v="-4.5576388196439304"/>
+    <n v="0.27942031328854439"/>
+    <n v="-4.0201878048736557"/>
   </r>
   <r>
     <x v="28"/>
@@ -5467,8 +5470,8 @@
     <n v="1.557507950745455"/>
     <n v="5.0402354699500789"/>
     <n v="7.5553850550677426E-2"/>
-    <n v="-0.26356789953982362"/>
-    <n v="-2.894778741896384"/>
+    <n v="-0.52668898377547957"/>
+    <n v="-2.6316576576607269"/>
   </r>
   <r>
     <x v="29"/>
@@ -5483,8 +5486,8 @@
     <n v="1.6296048315760201"/>
     <n v="5.2864600448964669"/>
     <n v="3.1959281407614608E-2"/>
-    <n v="-0.42860938818425248"/>
-    <n v="-2.0353091746309762"/>
+    <n v="-0.5892793668289249"/>
+    <n v="-1.874639195986304"/>
   </r>
   <r>
     <x v="30"/>
@@ -5499,8 +5502,8 @@
     <n v="1.387623428589225"/>
     <n v="4.3033458863460208"/>
     <n v="0.12737784158822851"/>
-    <n v="1.0302488296064931"/>
-    <n v="-2.8307327713336372"/>
+    <n v="0.6441506695124799"/>
+    <n v="-2.444634611239624"/>
   </r>
   <r>
     <x v="31"/>
@@ -5515,8 +5518,8 @@
     <n v="0.8912795252718112"/>
     <n v="2.471409759260653"/>
     <n v="0.19598292588417229"/>
-    <n v="2.2344902674631979"/>
-    <n v="-3.530627425844572"/>
+    <n v="1.657978498132421"/>
+    <n v="-2.9541156565137952"/>
   </r>
   <r>
     <x v="32"/>
@@ -5531,8 +5534,8 @@
     <n v="0.23819933719336431"/>
     <n v="0.25196406304769442"/>
     <n v="0.2280287239517472"/>
-    <n v="2.816525199345858"/>
-    <n v="-3.8608927650073381"/>
+    <n v="2.148783402910539"/>
+    <n v="-3.1931509685720179"/>
   </r>
   <r>
     <x v="33"/>
@@ -5547,8 +5550,8 @@
     <n v="-0.45362600982259149"/>
     <n v="-1.9063034087868"/>
     <n v="0.2201702507106145"/>
-    <n v="2.6863065287812691"/>
-    <n v="-3.7771572874193202"/>
+    <n v="2.0399601471612101"/>
+    <n v="-3.1308109057992608"/>
   </r>
   <r>
     <x v="34"/>
@@ -5558,13 +5561,13 @@
     <n v="0"/>
     <n v="0"/>
     <n v="3.6293794041660772"/>
-    <n v="20"/>
+    <n v="10"/>
     <n v="-3.7143296743339178"/>
     <n v="-10.66612847534889"/>
     <n v="-33.046182981543353"/>
     <n v="3.1757994542012278"/>
-    <n v="87.020155429818004"/>
-    <n v="-94.448814778485826"/>
+    <n v="68.873258408987624"/>
+    <n v="-76.301917757655445"/>
   </r>
   <r>
     <x v="35"/>
@@ -5579,8 +5582,8 @@
     <n v="-15.90077497901634"/>
     <n v="-46.753128265948703"/>
     <n v="6.1042602334499581"/>
-    <n v="40.972032674527007"/>
-    <n v="-54.974414311342741"/>
+    <n v="31.377387975940039"/>
+    <n v="-45.379769612755773"/>
   </r>
   <r>
     <x v="36"/>
@@ -5595,8 +5598,8 @@
     <n v="-16.094277648211651"/>
     <n v="-43.572200552967928"/>
     <n v="5.9809020803986499"/>
-    <n v="40.627679608179371"/>
-    <n v="-55.347831297162777"/>
+    <n v="31.030128517645149"/>
+    <n v="-45.75028020662856"/>
   </r>
   <r>
     <x v="37"/>
@@ -5611,8 +5614,8 @@
     <n v="-11.227899339784649"/>
     <n v="-33.191454559174367"/>
     <n v="3.0643441203949351"/>
-    <n v="78.533708035953609"/>
-    <n v="-100.0050197951637"/>
+    <n v="60.679835252841883"/>
+    <n v="-82.151147012052007"/>
   </r>
   <r>
     <x v="38"/>
@@ -5627,8 +5630,8 @@
     <n v="-1.328979355635485"/>
     <n v="-16.398992937905341"/>
     <n v="0.13156350733297201"/>
-    <n v="-12.12521359004309"/>
-    <n v="-16.021344541043391"/>
+    <n v="-12.51482668514312"/>
+    <n v="-15.631731445943361"/>
   </r>
   <r>
     <x v="39"/>
@@ -5643,8 +5646,8 @@
     <n v="-0.86465475643347744"/>
     <n v="-15.625535948562611"/>
     <n v="0.17131862178339929"/>
-    <n v="-11.824096272789699"/>
-    <n v="-16.83301135503509"/>
+    <n v="-12.324987781014229"/>
+    <n v="-16.33211984681056"/>
   </r>
   <r>
     <x v="40"/>
@@ -5659,8 +5662,8 @@
     <n v="-0.32912636758607478"/>
     <n v="-14.886271746825591"/>
     <n v="0.17740211424381691"/>
-    <n v="-11.883206103772849"/>
-    <n v="-17.066521470913141"/>
+    <n v="-12.401537640486881"/>
+    <n v="-16.548189934199112"/>
   </r>
   <r>
     <x v="41"/>
@@ -5675,8 +5678,8 @@
     <n v="0.17290825287136971"/>
     <n v="-14.33479801900096"/>
     <n v="0.14940050931421919"/>
-    <n v="-12.30891828871156"/>
-    <n v="-16.7064942550331"/>
+    <n v="-12.74867588534371"/>
+    <n v="-16.266736658400941"/>
   </r>
   <r>
     <x v="42"/>
@@ -5691,8 +5694,8 @@
     <n v="0.54249485747751935"/>
     <n v="-14.038778881492661"/>
     <n v="9.198333501263356E-2"/>
-    <n v="-13.038424269596581"/>
-    <n v="-15.852875779605011"/>
+    <n v="-13.319869420597421"/>
+    <n v="-15.571430628604171"/>
   </r>
   <r>
     <x v="43"/>
@@ -5707,8 +5710,8 @@
     <n v="0.68786915877998922"/>
     <n v="-13.987793962069141"/>
     <n v="9.3248491341419992E-3"/>
-    <n v="-13.718573786818281"/>
-    <n v="-14.94488329609999"/>
+    <n v="-13.84120473774645"/>
+    <n v="-14.822252345171821"/>
   </r>
   <r>
     <x v="44"/>
@@ -5723,8 +5726,8 @@
     <n v="0.67726726395729175"/>
     <n v="-14.01574886530322"/>
     <n v="5.2891656255988913E-2"/>
-    <n v="-13.820805305882301"/>
-    <n v="-14.54932605670278"/>
+    <n v="-13.89365738096434"/>
+    <n v="-14.47647398162073"/>
   </r>
   <r>
     <x v="45"/>
@@ -5739,8 +5742,8 @@
     <n v="0.67392464497847793"/>
     <n v="-13.9921875"/>
     <n v="7.8125E-3"/>
-    <n v="-13.32598018038591"/>
-    <n v="-14.65839481961409"/>
+    <n v="-13.45922164430873"/>
+    <n v="-14.52515335569127"/>
   </r>
   <r>
     <x v="46"/>
@@ -5755,8 +5758,8 @@
     <n v="0.72726726395729246"/>
     <n v="-13.974876134696791"/>
     <n v="6.8516656255988906E-2"/>
-    <n v="-13.194731646057701"/>
-    <n v="-14.39138699135723"/>
+    <n v="-13.314397180587649"/>
+    <n v="-14.271721456827271"/>
   </r>
   <r>
     <x v="47"/>
@@ -5771,8 +5774,8 @@
     <n v="0.7878691587799892"/>
     <n v="-14.02158103793086"/>
     <n v="6.3001508658562244E-3"/>
-    <n v="-13.00020594777158"/>
-    <n v="-14.25508696931016"/>
+    <n v="-13.125694049925441"/>
+    <n v="-14.1295988671563"/>
   </r>
   <r>
     <x v="48"/>
@@ -5787,8 +5790,8 @@
     <n v="0.69249485747751938"/>
     <n v="-14.00184611850734"/>
     <n v="7.6358335012631784E-2"/>
-    <n v="-12.295427193951321"/>
-    <n v="-14.669522756847091"/>
+    <n v="-12.53283675024089"/>
+    <n v="-14.432113200557509"/>
   </r>
   <r>
     <x v="49"/>
@@ -5803,8 +5806,8 @@
     <n v="0.37290825287136897"/>
     <n v="-13.74957698099904"/>
     <n v="0.133775509314221"/>
-    <n v="-11.410144605360321"/>
-    <n v="-15.34319285089502"/>
+    <n v="-11.80344942991379"/>
+    <n v="-14.949888026341551"/>
   </r>
   <r>
     <x v="50"/>
@@ -5819,8 +5822,8 @@
     <n v="-7.9126367586074761E-2"/>
     <n v="-13.254353253174409"/>
     <n v="0.16177711424381869"/>
-    <n v="-10.995877896681669"/>
-    <n v="-15.710644528632351"/>
+    <n v="-11.467354559876741"/>
+    <n v="-15.239167865437279"/>
   </r>
   <r>
     <x v="51"/>
@@ -5835,8 +5838,8 @@
     <n v="-0.56465475643347818"/>
     <n v="-12.583839051437391"/>
     <n v="0.15569362178339929"/>
-    <n v="-11.16027956454872"/>
-    <n v="-15.70136280762649"/>
+    <n v="-11.61438788885649"/>
+    <n v="-15.24725448331872"/>
   </r>
   <r>
     <x v="52"/>
@@ -5851,8 +5854,8 @@
     <n v="-0.9789793556354851"/>
     <n v="-11.89163206209466"/>
     <n v="0.11593850733297199"/>
-    <n v="-11.88683407946551"/>
-    <n v="-15.32285778944801"/>
+    <n v="-12.23043645046376"/>
+    <n v="-14.97925541844976"/>
   </r>
   <r>
     <x v="53"/>
@@ -5867,8 +5870,8 @@
     <n v="-1.227899339784654"/>
     <n v="-11.39292044082563"/>
     <n v="4.8719120394935089E-2"/>
-    <n v="-12.994846730356899"/>
-    <n v="-14.702591510432971"/>
+    <n v="-13.165621208364509"/>
+    <n v="-14.53181703242536"/>
   </r>
   <r>
     <x v="54"/>
@@ -5883,8 +5886,8 @@
     <n v="-1.2442776482116551"/>
     <n v="-11.318424447032079"/>
     <n v="3.4722919601348323E-2"/>
-    <n v="-13.35598801646772"/>
-    <n v="-14.880110294548871"/>
+    <n v="-13.50840024427584"/>
+    <n v="-14.727698066740761"/>
   </r>
   <r>
     <x v="55"/>
@@ -5899,8 +5902,8 @@
     <n v="-1.0007749790163369"/>
     <n v="-11.85624673405129"/>
     <n v="0.11988523344995811"/>
-    <n v="-12.51465115686158"/>
-    <n v="-16.201717206322691"/>
+    <n v="-12.883357761807691"/>
+    <n v="-15.83301060137658"/>
   </r>
   <r>
     <x v="56"/>
@@ -5915,8 +5918,8 @@
     <n v="-0.5161284753488864"/>
     <n v="-13.09444201845665"/>
     <n v="0.19142445420122561"/>
-    <n v="-11.67276084780657"/>
-    <n v="-17.3548298035256"/>
+    <n v="-12.24096774337848"/>
+    <n v="-16.786622907953689"/>
   </r>
   <r>
     <x v="57"/>
@@ -5926,13 +5929,13 @@
     <n v="0"/>
     <n v="0"/>
     <n v="6.0371931828280667"/>
-    <n v="-20"/>
+    <n v="-10"/>
     <n v="-9.5389496206809739"/>
     <n v="16.146373990177409"/>
     <n v="-57.978071591213201"/>
     <n v="5.2357952507106162"/>
-    <n v="141.39087995002069"/>
-    <n v="-160.46877919138259"/>
+    <n v="111.20491403588041"/>
+    <n v="-130.2828132772423"/>
   </r>
   <r>
     <x v="58"/>
@@ -5947,8 +5950,8 @@
     <n v="24.88819933719336"/>
     <n v="-85.292589063047686"/>
     <n v="10.24365372395175"/>
-    <n v="74.80798421281925"/>
-    <n v="-83.619866647157764"/>
+    <n v="58.965199126821553"/>
+    <n v="-67.77708156116006"/>
   </r>
   <r>
     <x v="59"/>
@@ -5963,8 +5966,8 @@
     <n v="25.591279525271819"/>
     <n v="-93.680784759260661"/>
     <n v="9.7883920741158281"/>
-    <n v="75.332871204914468"/>
-    <n v="-83.555484046533095"/>
+    <n v="59.444035679769712"/>
+    <n v="-67.666648521388339"/>
   </r>
   <r>
     <x v="60"/>
@@ -5979,8 +5982,8 @@
     <n v="18.137623428589229"/>
     <n v="-66.693970886346023"/>
     <n v="4.8569971584117679"/>
-    <n v="147.1740195404044"/>
-    <n v="-144.52978559867731"/>
+    <n v="118.0036390264962"/>
+    <n v="-115.35940508476909"/>
   </r>
   <r>
     <x v="61"/>
@@ -5995,8 +5998,8 @@
     <n v="2.4296048315760208"/>
     <n v="-2.8708350448964679"/>
     <n v="4.7584281407615059E-2"/>
-    <n v="7.8031771570281654"/>
-    <n v="5.8919914057870653"/>
+    <n v="7.612058581904054"/>
+    <n v="6.0831099809111757"/>
   </r>
   <r>
     <x v="62"/>
@@ -6011,8 +6014,8 @@
     <n v="2.407507950745456"/>
     <n v="-2.8308604699500819"/>
     <n v="5.9928850550677197E-2"/>
-    <n v="8.5233219551324559"/>
-    <n v="6.2787746863037528"/>
+    <n v="8.2988672282495841"/>
+    <n v="6.5032294131866228"/>
   </r>
   <r>
     <x v="63"/>
@@ -6027,8 +6030,8 @@
     <n v="2.06128778828674"/>
     <n v="-1.364786301497775"/>
     <n v="0.16215142598726651"/>
-    <n v="10.370272565329421"/>
-    <n v="5.4517449262556923"/>
+    <n v="9.8784198014220461"/>
+    <n v="5.9435976901630649"/>
   </r>
   <r>
     <x v="64"/>
@@ -6043,8 +6046,8 @@
     <n v="1.4343944636611059"/>
     <n v="1.496690571316188"/>
     <n v="0.24185470811080911"/>
-    <n v="11.884983419399051"/>
-    <n v="4.7351451280138352"/>
+    <n v="11.169999590260529"/>
+    <n v="5.4501289571523568"/>
   </r>
   <r>
     <x v="65"/>
@@ -6054,13 +6057,13 @@
     <n v="0"/>
     <n v="0"/>
     <n v="26.86728045207694"/>
-    <n v="-20"/>
+    <n v="-10"/>
     <n v="31.37501501882252"/>
     <n v="73.670696638526437"/>
     <n v="-336.97846817380969"/>
     <n v="22.543876188738331"/>
-    <n v="703.05702632074599"/>
-    <n v="-640.30699628310094"/>
+    <n v="568.72062406036127"/>
+    <n v="-505.97059402271623"/>
   </r>
   <r>
     <x v="66"/>
@@ -6075,8 +6078,8 @@
     <n v="36.267606345987538"/>
     <n v="-158.9836697811233"/>
     <n v="22.546282613618331"/>
-    <n v="954.11917776784981"/>
-    <n v="-891.2766506972273"/>
+    <n v="769.57959492134205"/>
+    <n v="-706.73706785071954"/>
   </r>
   <r>
     <x v="67"/>
@@ -6091,8 +6094,8 @@
     <n v="-1.054104901007038"/>
     <n v="14.249605975818939"/>
     <n v="91.547970979719764"/>
-    <n v="11.893583367543741"/>
-    <n v="5.0104746730167289"/>
+    <n v="11.205272498091031"/>
+    <n v="5.6987855424694303"/>
   </r>
   <r>
     <x v="68"/>
@@ -6107,8 +6110,8 @@
     <n v="-38.158680837500583"/>
     <n v="250.4003175147559"/>
     <n v="22.68590636978378"/>
-    <n v="953.06954029425458"/>
-    <n v="-891.09373489599955"/>
+    <n v="768.65321277522924"/>
+    <n v="-706.6774073769742"/>
   </r>
   <r>
     <x v="69"/>
@@ -6123,8 +6126,8 @@
     <n v="-74.939950484529163"/>
     <n v="480.24379573861569"/>
     <n v="22.804092831440709"/>
-    <n v="705.16270314102985"/>
-    <n v="-643.95451747814832"/>
+    <n v="570.25098107911208"/>
+    <n v="-509.0427954162306"/>
   </r>
   <r>
     <x v="70"/>
@@ -6139,8 +6142,8 @@
     <n v="-1.761819077906517"/>
     <n v="18.391517079942059"/>
     <n v="0.1035179682090686"/>
-    <n v="9.1101363727526294"/>
-    <n v="5.6501593133000139"/>
+    <n v="8.7641386668073675"/>
+    <n v="5.9961570192452758"/>
   </r>
   <r>
     <x v="71"/>
@@ -6155,8 +6158,8 @@
     <n v="-1.2549749361725919"/>
     <n v="15.21649986076935"/>
     <n v="0.22141765404569819"/>
-    <n v="10.38884516497653"/>
-    <n v="3.7294803863184689"/>
+    <n v="9.722908687110726"/>
+    <n v="4.3954168641842752"/>
   </r>
   <r>
     <x v="72"/>
@@ -6171,8 +6174,8 @@
     <n v="-0.42944480520082667"/>
     <n v="9.7894167048162526"/>
     <n v="0.30981434855095807"/>
-    <n v="11.46638190936622"/>
-    <n v="2.3149466300551271"/>
+    <n v="10.551238381435111"/>
+    <n v="3.2300901579862362"/>
   </r>
   <r>
     <x v="73"/>
@@ -6187,8 +6190,8 @@
     <n v="0.59966312956858092"/>
     <n v="2.7350829492222339"/>
     <n v="0.35355354958927082"/>
-    <n v="12.127596091668419"/>
-    <n v="1.737853620736185"/>
+    <n v="11.08862184457519"/>
+    <n v="2.7768278678294078"/>
   </r>
   <r>
     <x v="74"/>
@@ -6203,8 +6206,8 @@
     <n v="1.6807785109825319"/>
     <n v="-4.9723875186019333"/>
     <n v="0.34414591021081348"/>
-    <n v="12.27050786242985"/>
-    <n v="2.15600550961299"/>
+    <n v="11.259057627148159"/>
+    <n v="3.1674557448946761"/>
   </r>
   <r>
     <x v="75"/>
@@ -6219,8 +6222,8 @@
     <n v="2.6489434084156742"/>
     <n v="-12.142552064992691"/>
     <n v="0.28132989188778801"/>
-    <n v="11.888321218049891"/>
-    <n v="3.5607257781998491"/>
+    <n v="11.05556167406489"/>
+    <n v="4.3934853221848531"/>
   </r>
   <r>
     <x v="76"/>
@@ -6235,8 +6238,8 @@
     <n v="3.3517209171270621"/>
     <n v="-17.552671330888309"/>
     <n v="0.17335386677056519"/>
-    <n v="11.08540691632685"/>
-    <n v="5.7609246373659806"/>
+    <n v="10.55295868843077"/>
+    <n v="6.293372865262068"/>
   </r>
   <r>
     <x v="77"/>
@@ -6251,8 +6254,8 @@
     <n v="3.6738542200842428"/>
     <n v="-20.154933206833391"/>
     <n v="3.5900553840559013E-2"/>
-    <n v="10.29737078824887"/>
-    <n v="8.1744303194322505"/>
+    <n v="10.0850767413672"/>
+    <n v="8.3867243663139117"/>
   </r>
   <r>
     <x v="78"/>
@@ -6267,8 +6270,8 @@
     <n v="3.5566918097942142"/>
     <n v="-19.27255553848973"/>
     <n v="0.1102068330254404"/>
-    <n v="11.930951816398069"/>
-    <n v="8.2093519682269971"/>
+    <n v="11.55879183158096"/>
+    <n v="8.5815119530441049"/>
   </r>
   <r>
     <x v="79"/>
@@ -6283,8 +6286,8 @@
     <n v="3.009135858897706"/>
     <n v="-14.749595612040361"/>
     <n v="0.24217878512118321"/>
-    <n v="14.465644087833359"/>
-    <n v="7.1904742893469251"/>
+    <n v="13.73812710798472"/>
+    <n v="7.9179912691955678"/>
   </r>
   <r>
     <x v="80"/>
@@ -6299,8 +6302,8 @@
     <n v="2.108148416914021"/>
     <n v="-7.0245686219563588"/>
     <n v="0.33882765942163567"/>
-    <n v="16.419594152178782"/>
-    <n v="6.4238658999038636"/>
+    <n v="15.420021326951289"/>
+    <n v="7.4234387251313549"/>
   </r>
   <r>
     <x v="81"/>
@@ -6315,8 +6318,8 @@
     <n v="0.98847057206209143"/>
     <n v="2.891115406809396"/>
     <n v="0.38396978819142191"/>
-    <n v="17.423999123847342"/>
-    <n v="6.1507019868890982"/>
+    <n v="16.296669410151519"/>
+    <n v="7.2780317005849229"/>
   </r>
   <r>
     <x v="82"/>
@@ -6331,8 +6334,8 @@
     <n v="-0.17707917306651669"/>
     <n v="13.53386951844112"/>
     <n v="0.36911589398050282"/>
-    <n v="17.317927942487341"/>
-    <n v="6.473846392664341"/>
+    <n v="16.233519787505038"/>
+    <n v="7.5582545476466407"/>
   </r>
   <r>
     <x v="83"/>
@@ -6347,8 +6350,8 @@
     <n v="-1.2038306432548449"/>
     <n v="23.194988747334651"/>
     <n v="0.29500586432862258"/>
-    <n v="16.129520123099621"/>
-    <n v="7.3876751497276292"/>
+    <n v="15.25533562576242"/>
+    <n v="8.2618596470648278"/>
   </r>
   <r>
     <x v="84"/>
@@ -6363,8 +6366,8 @@
     <n v="-1.924013022752018"/>
     <n v="30.185475745778689"/>
     <n v="0.17171836659199971"/>
-    <n v="14.095821954017479"/>
-    <n v="8.7568755938755309"/>
+    <n v="13.56192731800329"/>
+    <n v="9.290770229889727"/>
   </r>
   <r>
     <x v="85"/>
@@ -6379,8 +6382,8 @@
     <n v="-2.213542383095795"/>
     <n v="33.11811733099951"/>
     <n v="1.7306499958445801E-2"/>
-    <n v="12.04373324655513"/>
-    <n v="9.9216537535279787"/>
+    <n v="11.831525297252419"/>
+    <n v="10.133861702830689"/>
   </r>
   <r>
     <x v="86"/>
@@ -6395,8 +6398,8 @@
     <n v="-2.01256904633291"/>
     <n v="31.160477821377309"/>
     <n v="0.1448565629775356"/>
-    <n v="12.89209009795529"/>
-    <n v="8.1712000949746635"/>
+    <n v="12.420001097657231"/>
+    <n v="8.6432890952727259"/>
   </r>
   <r>
     <x v="87"/>
@@ -6411,8 +6414,8 @@
     <n v="-1.336402349355009"/>
     <n v="24.214169436602361"/>
     <n v="0.28962994297673639"/>
-    <n v="14.520309813757949"/>
-    <n v="5.8435797229915911"/>
+    <n v="13.652636804681309"/>
+    <n v="6.7112527320682274"/>
   </r>
   <r>
     <x v="88"/>
@@ -6427,8 +6430,8 @@
     <n v="-0.27487807272220272"/>
     <n v="12.98515122531701"/>
     <n v="0.39401352362997949"/>
-    <n v="15.842783476406529"/>
-    <n v="4.2176404107001346"/>
+    <n v="14.68026916983589"/>
+    <n v="5.3801547172707744"/>
   </r>
   <r>
     <x v="89"/>
@@ -6443,8 +6446,8 @@
     <n v="1.0199836931830011"/>
     <n v="-1.0742248638180989"/>
     <n v="0.44080364110662268"/>
-    <n v="16.621749320637761"/>
-    <n v="3.6694422017520569"/>
+    <n v="15.32651860874919"/>
+    <n v="4.9646729136406256"/>
   </r>
   <r>
     <x v="90"/>
@@ -6459,8 +6462,8 @@
     <n v="2.3563407109762009"/>
     <n v="-15.95046558328008"/>
     <n v="0.42141511996261732"/>
-    <n v="16.755273708026369"/>
-    <n v="4.3614611223779871"/>
+    <n v="15.515892449461539"/>
+    <n v="5.6008423809428258"/>
   </r>
   <r>
     <x v="91"/>
@@ -6475,8 +6478,8 @@
     <n v="3.5316100324649091"/>
     <n v="-29.359188865369891"/>
     <n v="0.33740900375788391"/>
-    <n v="16.258059202195749"/>
-    <n v="6.2505938137573773"/>
+    <n v="15.257312663351909"/>
+    <n v="7.2513403526012148"/>
   </r>
   <r>
     <x v="92"/>
@@ -6491,8 +6494,8 @@
     <n v="4.3638457023255466"/>
     <n v="-39.099165008646651"/>
     <n v="0.20046037710011791"/>
-    <n v="15.280460830225399"/>
-    <n v="9.0715831571316485"/>
+    <n v="14.65957306291603"/>
+    <n v="9.6924709244410234"/>
   </r>
   <r>
     <x v="93"/>
@@ -6507,8 +6510,8 @@
     <n v="4.7205421824691216"/>
     <n v="-43.415765127374648"/>
     <n v="3.0741062254822541E-2"/>
-    <n v="14.446019999808341"/>
-    <n v="12.01546212470131"/>
+    <n v="14.20296421229763"/>
+    <n v="12.25851791221201"/>
   </r>
   <r>
     <x v="94"/>
@@ -6523,8 +6526,8 @@
     <n v="4.5403026681336982"/>
     <n v="-41.314548923436021"/>
     <n v="0.14605941405405429"/>
-    <n v="16.71328894086426"/>
-    <n v="11.8950285815393"/>
+    <n v="16.231462904931771"/>
+    <n v="12.3768546174718"/>
   </r>
   <r>
     <x v="95"/>
@@ -6539,8 +6542,8 @@
     <n v="3.843843125439717"/>
     <n v="-32.77040546616783"/>
     <n v="0.30263335113772882"/>
-    <n v="19.81010291941551"/>
-    <n v="10.745164284241771"/>
+    <n v="18.903609055898141"/>
+    <n v="11.651658147759139"/>
   </r>
   <r>
     <x v="96"/>
@@ -6555,8 +6558,8 @@
     <n v="2.7324069736401748"/>
     <n v="-18.791663820059821"/>
     <n v="0.41428138140993548"/>
-    <n v="22.153142124693211"/>
-    <n v="9.9399080630116092"/>
+    <n v="20.931818718525051"/>
+    <n v="11.16123146917977"/>
   </r>
   <r>
     <x v="97"/>
@@ -6571,8 +6574,8 @@
     <n v="1.3735998893482939"/>
     <n v="-1.320099505101044"/>
     <n v="0.4628107003696087"/>
-    <n v="23.331141345894661"/>
-    <n v="9.7422567669589029"/>
+    <n v="21.972252888001091"/>
+    <n v="11.10114522485248"/>
   </r>
   <r>
     <x v="98"/>
@@ -6587,8 +6590,8 @@
     <n v="-2.337862026822108E-2"/>
     <n v="17.026382459535849"/>
     <n v="0.43948974940912322"/>
-    <n v="23.176351929061781"/>
-    <n v="10.25687955290206"/>
+    <n v="21.884404691445809"/>
+    <n v="11.54882679051804"/>
   </r>
   <r>
     <x v="99"/>
@@ -6603,8 +6606,8 @@
     <n v="-1.2394382316809009"/>
     <n v="33.335452295684419"/>
     <n v="0.34658113909513588"/>
-    <n v="21.745974873188501"/>
-    <n v="11.460097462796"/>
+    <n v="20.717387132149248"/>
+    <n v="12.488685203835249"/>
   </r>
   <r>
     <x v="100"/>
@@ -6619,8 +6622,8 @@
     <n v="-2.0794195057713858"/>
     <n v="44.851358844156287"/>
     <n v="0.19718878498183301"/>
-    <n v="19.34360622387787"/>
-    <n v="13.17507505572161"/>
+    <n v="18.72675310706224"/>
+    <n v="13.791928172537229"/>
   </r>
   <r>
     <x v="101"/>
@@ -6635,8 +6638,8 @@
     <n v="-2.402804332067118"/>
     <n v="49.425846453220529"/>
     <n v="1.3414195719127159E-2"/>
-    <n v="17.021219704053909"/>
-    <n v="14.55195190450784"/>
+    <n v="16.77429292409931"/>
+    <n v="14.798878684462441"/>
   </r>
   <r>
     <x v="102"/>
@@ -6651,8 +6654,8 @@
     <n v="-2.1464809628082029"/>
     <n v="45.895912721971868"/>
     <n v="0.17691924023447039"/>
-    <n v="18.165301181850449"/>
-    <n v="12.4518168220595"/>
+    <n v="17.593952745871359"/>
+    <n v="13.023165258038601"/>
   </r>
   <r>
     <x v="103"/>
@@ -6667,8 +6670,8 @@
     <n v="-1.335886190907146"/>
     <n v="34.323393976578359"/>
     <n v="0.34448748489072401"/>
-    <n v="20.10471339185067"/>
-    <n v="9.8013750249988227"/>
+    <n v="19.074379555165489"/>
+    <n v="10.83170886168401"/>
   </r>
   <r>
     <x v="104"/>
@@ -6683,8 +6686,8 @@
     <n v="-8.2596208395817425E-2"/>
     <n v="16.0504348124594"/>
     <n v="0.46299087911678249"/>
-    <n v="21.658724433222211"/>
-    <n v="8.005557044019973"/>
+    <n v="20.29340769430198"/>
+    <n v="9.3708737829401958"/>
   </r>
   <r>
     <x v="105"/>
@@ -6699,8 +6702,8 @@
     <n v="1.4314848052709579"/>
     <n v="-6.4476011112416103"/>
     <n v="0.5132837553485885"/>
-    <n v="22.565236682000609"/>
-    <n v="7.4841052536449011"/>
+    <n v="21.05712353916504"/>
+    <n v="8.9922183964804727"/>
   </r>
   <r>
     <x v="106"/>
@@ -6715,8 +6718,8 @@
     <n v="2.9811022651027961"/>
     <n v="-29.89837019660591"/>
     <n v="0.48646008945606312"/>
-    <n v="22.71918875435944"/>
-    <n v="8.4076899380640064"/>
+    <n v="21.288038872729899"/>
+    <n v="9.8388398196935505"/>
   </r>
   <r>
     <x v="107"/>
@@ -6731,8 +6734,8 @@
     <n v="4.3317874398669449"/>
     <n v="-50.713308130287338"/>
     <n v="0.38539915615325171"/>
-    <n v="22.150798933135771"/>
-    <n v="10.707995442164821"/>
+    <n v="21.00651858403868"/>
+    <n v="11.85227579126191"/>
   </r>
   <r>
     <x v="108"/>
@@ -6747,8 +6750,8 @@
     <n v="5.275969872347174"/>
     <n v="-65.542796014170278"/>
     <n v="0.22450719392634971"/>
-    <n v="21.047399383638741"/>
-    <n v="14.06005956695669"/>
+    <n v="20.348665401970539"/>
+    <n v="14.75879354862489"/>
   </r>
   <r>
     <x v="109"/>
@@ -6763,8 +6766,8 @@
     <n v="5.6654965883562713"/>
     <n v="-71.82027778195895"/>
     <n v="2.766763174139442E-2"/>
-    <n v="20.192408797015769"/>
-    <n v="17.46292646646701"/>
+    <n v="19.9194605639609"/>
+    <n v="17.73587469952189"/>
   </r>
   <r>
     <x v="110"/>
@@ -6779,8 +6782,8 @@
     <n v="5.4354617726018493"/>
     <n v="-68.207622160011425"/>
     <n v="0.17530896816952429"/>
-    <n v="22.98070091509549"/>
-    <n v="17.25656237444176"/>
+    <n v="22.408287061030119"/>
+    <n v="17.828976228507141"/>
   </r>
   <r>
     <x v="111"/>
@@ -6795,8 +6798,8 @@
     <n v="4.6155223913805301"/>
     <n v="-54.865816643552499"/>
     <n v="0.35320678693274488"/>
-    <n v="26.572854701897551"/>
-    <n v="16.007750926554941"/>
+    <n v="25.516344324363288"/>
+    <n v="17.0642613040892"/>
   </r>
   <r>
     <x v="112"/>
@@ -6811,8 +6814,8 @@
     <n v="3.3267594686443629"/>
     <n v="-33.499637865510188"/>
     <n v="0.47821146226128869"/>
-    <n v="29.270146260709701"/>
-    <n v="15.17702020785608"/>
+    <n v="27.86083365542434"/>
+    <n v="16.58633281314145"/>
   </r>
   <r>
     <x v="113"/>
@@ -6827,8 +6830,8 @@
     <n v="1.764357203768"/>
     <n v="-7.158857179143471"/>
     <n v="0.53026066251011272"/>
-    <n v="30.620198146109431"/>
-    <n v="15.05023242371564"/>
+    <n v="29.06320157387005"/>
+    <n v="16.607228995955019"/>
   </r>
   <r>
     <x v="114"/>
@@ -6843,8 +6846,8 @@
     <n v="0.16857376962783521"/>
     <n v="20.183251363776019"/>
     <n v="0.50025788575559815"/>
-    <n v="30.446576119388091"/>
-    <n v="15.73572166032427"/>
+    <n v="28.975490673481701"/>
+    <n v="17.206807106230649"/>
   </r>
   <r>
     <x v="115"/>
@@ -6859,8 +6862,8 @@
     <n v="-1.2116735285337441"/>
     <n v="44.216801142379808"/>
     <n v="0.39163567329590521"/>
-    <n v="28.82903656010787"/>
-    <n v="17.195992225970709"/>
+    <n v="27.665732126694149"/>
+    <n v="18.35929665938442"/>
   </r>
   <r>
     <x v="116"/>
@@ -6875,8 +6878,8 @@
     <n v="-2.1570817483435598"/>
     <n v="60.961372649422422"/>
     <n v="0.22000323279848291"/>
-    <n v="26.12655326330388"/>
-    <n v="19.219789969344561"/>
+    <n v="25.435876933907949"/>
+    <n v="19.910466298740491"/>
   </r>
   <r>
     <x v="117"/>
@@ -6891,8 +6894,8 @@
     <n v="-2.5122031967857881"/>
     <n v="67.408750847655966"/>
     <n v="1.0906694488220131E-2"/>
-    <n v="23.58030339836646"/>
-    <n v="20.797883212657101"/>
+    <n v="23.302061379795528"/>
+    <n v="21.07612523122804"/>
   </r>
   <r>
     <x v="118"/>
@@ -6907,8 +6910,8 @@
     <n v="-2.2103058444561379"/>
     <n v="62.03918834489825"/>
     <n v="0.20397706022380649"/>
-    <n v="24.9794746776689"/>
-    <n v="18.42273868947855"/>
+    <n v="24.323801078849861"/>
+    <n v="19.078412288297589"/>
   </r>
   <r>
     <x v="119"/>
@@ -6923,8 +6926,8 @@
     <n v="-1.284884169754414"/>
     <n v="45.123921096406242"/>
     <n v="0.3916452727102282"/>
-    <n v="27.205240160380431"/>
-    <n v="15.501887751518719"/>
+    <n v="26.034904919494259"/>
+    <n v="16.67222299240489"/>
   </r>
   <r>
     <x v="120"/>
@@ -6939,8 +6942,8 @@
     <n v="0.13413733009539761"/>
     <n v="18.757101419070271"/>
     <n v="0.5228431564261129"/>
-    <n v="28.978951681471059"/>
-    <n v="13.565401035246881"/>
+    <n v="27.437596616848641"/>
+    <n v="15.106756099869299"/>
   </r>
   <r>
     <x v="121"/>
@@ -6955,8 +6958,8 @@
     <n v="1.8391252507022391"/>
     <n v="-13.398960814112201"/>
     <n v="0.57662595071481348"/>
-    <n v="30.015211070726281"/>
-    <n v="13.07362682773438"/>
+    <n v="28.321052646427091"/>
+    <n v="14.767785252033571"/>
   </r>
   <r>
     <x v="122"/>
@@ -6971,8 +6974,8 @@
     <n v="3.5756889212162428"/>
     <n v="-46.626449997195607"/>
     <n v="0.54369760788599564"/>
-    <n v="30.204818207295808"/>
-    <n v="14.20630526513834"/>
+    <n v="28.604966913080069"/>
+    <n v="15.80615655935409"/>
   </r>
   <r>
     <x v="123"/>
@@ -6987,8 +6990,8 @@
     <n v="5.0812443342559117"/>
     <n v="-75.851709996028148"/>
     <n v="0.42799473854409698"/>
-    <n v="29.590409017299532"/>
-    <n v="16.87470002662473"/>
+    <n v="28.318838118232051"/>
+    <n v="18.14627092569221"/>
   </r>
   <r>
     <x v="124"/>
@@ -7003,8 +7006,8 @@
     <n v="6.1253377642310678"/>
     <n v="-96.428610809294071"/>
     <n v="0.2462490732676095"/>
-    <n v="28.390910434339311"/>
-    <n v="20.70270963419971"/>
+    <n v="27.622090354325351"/>
+    <n v="21.47152971421367"/>
   </r>
   <r>
     <x v="125"/>
@@ -7019,8 +7022,8 @@
     <n v="6.5455313066238601"/>
     <n v="-104.8850553189064"/>
     <n v="2.5570813570798379E-2"/>
-    <n v="27.52981807056646"/>
-    <n v="24.52132355657513"/>
+    <n v="27.228968619167329"/>
+    <n v="24.822173007974261"/>
   </r>
   <r>
     <x v="126"/>
@@ -7035,8 +7038,8 @@
     <n v="6.2732607667074296"/>
     <n v="-99.513312770161662"/>
     <n v="0.20059846966512751"/>
-    <n v="30.77632322430555"/>
-    <n v="24.264112287022058"/>
+    <n v="30.125102130577201"/>
+    <n v="24.915333380750411"/>
   </r>
   <r>
     <x v="127"/>
@@ -7051,8 +7054,8 @@
     <n v="5.345555300079182"/>
     <n v="-80.705096063710258"/>
     <n v="0.397558696621374"/>
-    <n v="34.819823338135059"/>
-    <n v="22.937751837690879"/>
+    <n v="33.631616188090639"/>
+    <n v="24.125958987735292"/>
   </r>
   <r>
     <x v="128"/>
@@ -7067,8 +7070,8 @@
     <n v="3.9006397137907221"/>
     <n v="-50.968989887582538"/>
     <n v="0.53467960354408461"/>
-    <n v="37.846334117567977"/>
-    <n v="22.09223422958188"/>
+    <n v="36.270924128769373"/>
+    <n v="23.667644218380492"/>
   </r>
   <r>
     <x v="129"/>
@@ -7078,13 +7081,13 @@
     <n v="0"/>
     <n v="0"/>
     <n v="39.172539549249272"/>
-    <n v="20"/>
+    <n v="10"/>
     <n v="-2.1575215257785199"/>
     <n v="-102.98682100438209"/>
     <n v="2160.5657195662452"/>
     <n v="33.447891874982453"/>
-    <n v="977.15596720545307"/>
-    <n v="-981.47101025701011"/>
+    <n v="781.29326945920684"/>
+    <n v="-785.60831251076388"/>
   </r>
   <r>
     <x v="130"/>
@@ -7099,8 +7102,8 @@
     <n v="-52.187230927753383"/>
     <n v="1107.1560183193469"/>
     <n v="33.412242730644493"/>
-    <n v="1318.0875827769109"/>
-    <n v="-1321.7328605677351"/>
+    <n v="1054.105538442446"/>
+    <n v="-1057.7508162332699"/>
   </r>
   <r>
     <x v="131"/>
@@ -7115,8 +7118,8 @@
     <n v="-1.1420936966444459"/>
     <n v="55.55378559697202"/>
     <n v="130.99877111911641"/>
-    <n v="37.420311854909791"/>
-    <n v="24.57723038332308"/>
+    <n v="36.136003707751122"/>
+    <n v="25.861538530481749"/>
   </r>
   <r>
     <x v="132"/>
@@ -7131,8 +7134,8 @@
     <n v="50.389690172309606"/>
     <n v="-1098.159181151271"/>
     <n v="33.098530195566269"/>
-    <n v="1319.0849132168771"/>
-    <n v="-1323.4517530239509"/>
+    <n v="1054.8312465927941"/>
+    <n v="-1059.1980863998681"/>
   </r>
   <r>
     <x v="133"/>
@@ -7147,8 +7150,8 @@
     <n v="102.57727590733511"/>
     <n v="-2259.3669153119909"/>
     <n v="32.866845350619514"/>
-    <n v="970.20190511276564"/>
-    <n v="-975.53559581400464"/>
+    <n v="775.62815502008868"/>
+    <n v="-780.96184572132768"/>
   </r>
   <r>
     <x v="134"/>
@@ -7163,8 +7166,8 @@
     <n v="-2.2260347943041792"/>
     <n v="79.233792415421775"/>
     <n v="0.22780169153424981"/>
-    <n v="33.355558063832113"/>
-    <n v="26.053478420475471"/>
+    <n v="32.625350099496437"/>
+    <n v="26.78368638481113"/>
   </r>
   <r>
     <x v="135"/>
@@ -7179,8 +7182,8 @@
     <n v="-1.1987502448130629"/>
     <n v="56.346311128486192"/>
     <n v="0.43363886531856372"/>
-    <n v="35.849905959667687"/>
-    <n v="22.898955280716869"/>
+    <n v="34.554810891772618"/>
+    <n v="24.194050348611949"/>
   </r>
   <r>
     <x v="136"/>
@@ -7195,8 +7198,8 @@
     <n v="0.3683366748267673"/>
     <n v="20.95895541801649"/>
     <n v="0.57644384861326614"/>
-    <n v="37.833818868217278"/>
-    <n v="20.84341067243362"/>
+    <n v="36.134778048638907"/>
+    <n v="22.542451492011988"/>
   </r>
   <r>
     <x v="137"/>
@@ -7211,8 +7214,8 @@
     <n v="2.2446725913980932"/>
     <n v="-21.93503497334391"/>
     <n v="0.63359962037485928"/>
-    <n v="38.999931044850939"/>
-    <n v="20.384938212773509"/>
+    <n v="37.138431761643197"/>
+    <n v="22.246437495981251"/>
   </r>
   <r>
     <x v="138"/>
@@ -7227,8 +7230,8 @@
     <n v="4.1497078701045176"/>
     <n v="-66.007193172590817"/>
     <n v="0.59539903996806842"/>
-    <n v="39.23455432671242"/>
-    <n v="21.712475287966061"/>
+    <n v="37.482346422837793"/>
+    <n v="23.464683191840699"/>
   </r>
   <r>
     <x v="139"/>
@@ -7243,8 +7246,8 @@
     <n v="5.7954429774678733"/>
     <n v="-104.53757396956399"/>
     <n v="0.46667592963919091"/>
-    <n v="38.59084169584181"/>
-    <n v="24.719830306020249"/>
+    <n v="37.203740556859657"/>
+    <n v="26.106931445002399"/>
   </r>
   <r>
     <x v="140"/>
@@ -7259,8 +7262,8 @@
     <n v="6.9305760442316187"/>
     <n v="-131.4505706262585"/>
     <n v="0.26621719632682073"/>
-    <n v="37.315684967327449"/>
-    <n v="28.985535881157379"/>
+    <n v="36.48267005871044"/>
+    <n v="29.818550789774392"/>
   </r>
   <r>
     <x v="141"/>
@@ -7275,8 +7278,8 @@
     <n v="7.379479982445261"/>
     <n v="-142.2834963557695"/>
     <n v="2.402322291673897E-2"/>
-    <n v="36.458193895897573"/>
-    <n v="33.1898525499359"/>
+    <n v="36.131359761301397"/>
+    <n v="33.516686684532068"/>
   </r>
   <r>
     <x v="142"/>
@@ -7286,13 +7289,13 @@
     <n v="0"/>
     <n v="0"/>
     <n v="4.5441470486107063"/>
-    <n v="20"/>
+    <n v="10"/>
     <n v="32.792941740517122"/>
     <n v="-4.8325650886713136"/>
     <n v="149.98264514079651"/>
     <n v="3.9427241177894961"/>
-    <n v="146.39661795578479"/>
-    <n v="-80.810734474750532"/>
+    <n v="123.67588271273129"/>
+    <n v="-58.089999231697007"/>
   </r>
   <r>
     <x v="143"/>
@@ -7307,8 +7310,8 @@
     <n v="-12.534266343322651"/>
     <n v="337.47344187598151"/>
     <n v="8.1034572695762463"/>
-    <n v="85.762205968057884"/>
-    <n v="-24.99437303890457"/>
+    <n v="74.686548067361642"/>
+    <n v="-13.918715138208331"/>
   </r>
   <r>
     <x v="144"/>
@@ -7323,8 +7326,8 @@
     <n v="-14.783482180306461"/>
     <n v="397.19694386069972"/>
     <n v="6.3057598981148999"/>
-    <n v="92.530347677705421"/>
-    <n v="-29.918827881475622"/>
+    <n v="80.285430121787314"/>
+    <n v="-17.673910325557511"/>
   </r>
   <r>
     <x v="145"/>
@@ -7339,8 +7342,8 @@
     <n v="2.040002000350102"/>
     <n v="-18.618862516566701"/>
     <n v="7.3811874921858589"/>
-    <n v="217.1859689739006"/>
-    <n v="-152.42359398952891"/>
+    <n v="180.2250126775576"/>
+    <n v="-115.4626376931859"/>
   </r>
   <r>
     <x v="146"/>
@@ -7355,8 +7358,8 @@
     <n v="18.835958601003139"/>
     <n v="-442.71704558319192"/>
     <n v="7.8909090921372922"/>
-    <n v="98.382523266650338"/>
-    <n v="-32.600705082375747"/>
+    <n v="85.284200431747735"/>
+    <n v="-19.50238224747314"/>
   </r>
   <r>
     <x v="147"/>
@@ -7371,8 +7374,8 @@
     <n v="18.050504053583449"/>
     <n v="-427.70628833288839"/>
     <n v="8.4558112011008788"/>
-    <n v="96.985448058228158"/>
-    <n v="-31.822317991248848"/>
+    <n v="84.10467145328046"/>
+    <n v="-18.94154138630115"/>
   </r>
   <r>
     <x v="148"/>
@@ -7387,8 +7390,8 @@
     <n v="10.7584275475783"/>
     <n v="-240.80348465355149"/>
     <n v="4.3002354373689897"/>
-    <n v="159.76482542342569"/>
-    <n v="-87.31277603024644"/>
+    <n v="135.0570652780585"/>
+    <n v="-62.605015884879208"/>
   </r>
   <r>
     <x v="149"/>
@@ -7403,8 +7406,8 @@
     <n v="-2.582842048746028"/>
     <n v="106.94613111366441"/>
     <n v="7.762153732350896E-3"/>
-    <n v="41.456985132171283"/>
-    <n v="38.127490560364002"/>
+    <n v="41.124035674990537"/>
+    <n v="38.460440017544727"/>
   </r>
   <r>
     <x v="150"/>
@@ -7419,8 +7422,8 @@
     <n v="-2.2061096011024088"/>
     <n v="97.226421903667216"/>
     <n v="0.24932232296082901"/>
-    <n v="43.304561574953532"/>
-    <n v="35.327528174504423"/>
+    <n v="42.50685823490862"/>
+    <n v="36.125231514549327"/>
   </r>
   <r>
     <x v="151"/>
@@ -7435,8 +7438,8 @@
     <n v="-1.086345951965455"/>
     <n v="67.798621436533921"/>
     <n v="0.47186124469610041"/>
-    <n v="46.053978097664327"/>
-    <n v="31.96692932123436"/>
+    <n v="44.645273220021338"/>
+    <n v="33.375634198877357"/>
   </r>
   <r>
     <x v="152"/>
@@ -7451,8 +7454,8 @@
     <n v="0.61580756171421169"/>
     <n v="22.551891710575219"/>
     <n v="0.62541708622637771"/>
-    <n v="48.24041576713131"/>
-    <n v="29.809072205729461"/>
+    <n v="46.397281410991127"/>
+    <n v="31.652206561869651"/>
   </r>
   <r>
     <x v="153"/>
@@ -7467,104 +7470,104 @@
     <n v="2.6489357891254541"/>
     <n v="-32.059693109410567"/>
     <n v="0.68580781115145584"/>
-    <n v="49.535791253764629"/>
-    <n v="29.38735514018876"/>
+    <n v="47.520947642407037"/>
+    <n v="31.402198751546351"/>
   </r>
   <r>
     <x v="154"/>
     <n v="39.717895543374922"/>
     <s v="y-value"/>
-    <n v="35.841392541400978"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5.0458997959033827"/>
-    <n v="0"/>
-    <n v="39.717895543374922"/>
-    <n v="-9.7535765226634563"/>
-    <n v="301.62635278398022"/>
-    <n v="3.876503001973937"/>
-    <n v="161.98888743898561"/>
-    <n v="-90.306102356183587"/>
+    <n v="48.341392541400978"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9.7517176819556699"/>
+    <n v="-10"/>
+    <n v="48.341392541400978"/>
+    <n v="30.246423477336538"/>
+    <n v="-775.87364721601978"/>
+    <n v="8.623496998026063"/>
+    <n v="243.3757461805144"/>
+    <n v="-146.69296109771241"/>
   </r>
   <r>
     <x v="155"/>
     <n v="41.190477879574622"/>
     <s v="y-value"/>
-    <n v="32.123415232300033"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2.487244600145059"/>
+    <n v="57.123415232299983"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.4347328773951018"/>
     <n v="0"/>
     <n v="41.190477879574622"/>
-    <n v="-16.907770526010161"/>
-    <n v="497.08710469757938"/>
-    <n v="9.0670626472745823"/>
-    <n v="94.304530235926521"/>
-    <n v="-30.057699771326451"/>
+    <n v="43.092229473989839"/>
+    <n v="-1127.912895302421"/>
+    <n v="15.932937352725361"/>
+    <n v="165.81807278020199"/>
+    <n v="-51.571242315602063"/>
   </r>
   <r>
     <x v="156"/>
-    <n v="25"/>
-    <s v="y-value"/>
-    <n v="38.312436696852217"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="8.1992694850337919"/>
-    <n v="0"/>
-    <n v="25"/>
-    <n v="-0.37740889496230351"/>
-    <n v="48.785533532056142"/>
-    <n v="13.31243669685222"/>
-    <n v="243.29417382269699"/>
-    <n v="-166.66930042899261"/>
+    <n v="75"/>
+    <s v="y-value"/>
+    <n v="50.812436696852217"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11.959343972827879"/>
+    <n v="0"/>
+    <n v="75"/>
+    <n v="19.622591105037699"/>
+    <n v="-493.71446646794391"/>
+    <n v="24.18756330314778"/>
+    <n v="289.99931615340978"/>
+    <n v="-188.37444275970529"/>
   </r>
   <r>
     <x v="157"/>
-    <n v="25"/>
-    <s v="y-value"/>
-    <n v="40.703405201760461"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7.3497552160559563"/>
-    <n v="0"/>
-    <n v="25"/>
-    <n v="15.4095826925303"/>
-    <n v="-390.76491018908791"/>
-    <n v="15.703405201760461"/>
-    <n v="224.4472856031594"/>
-    <n v="-143.04047519963851"/>
+    <n v="75"/>
+    <s v="y-value"/>
+    <n v="53.203405201760432"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12.806001074505859"/>
+    <n v="0"/>
+    <n v="75"/>
+    <n v="-4.5904173074697043"/>
+    <n v="181.73508981091209"/>
+    <n v="21.796594798239571"/>
+    <n v="309.32342669187773"/>
+    <n v="-202.91661628835681"/>
   </r>
   <r>
     <x v="158"/>
     <n v="47.341373364459344"/>
     <s v="y-value"/>
-    <n v="37.528181568294713"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.6151426504894091"/>
+    <n v="62.528181568294599"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.3287180947453896"/>
     <n v="0"/>
     <n v="47.341373364459344"/>
-    <n v="30.377473193339789"/>
-    <n v="-820.63543614355433"/>
-    <n v="9.8131917961646309"/>
-    <n v="127.90674783052989"/>
-    <n v="-52.850384693940498"/>
+    <n v="-29.622526806660211"/>
+    <n v="899.36456385644556"/>
+    <n v="15.186808203835261"/>
+    <n v="149.10254346320241"/>
+    <n v="-24.046180326613211"/>
   </r>
   <r>
     <x v="159"/>
     <n v="49.281769563007813"/>
     <s v="y-value"/>
-    <n v="43.757554156890478"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6.1865322676187553"/>
+    <n v="56.257554156890478"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8.6087809725826734"/>
     <n v="0"/>
     <n v="49.281769563007813"/>
-    <n v="22.882142580630159"/>
-    <n v="-608.38350939106897"/>
-    <n v="5.5242154061173352"/>
-    <n v="198.42086084735939"/>
-    <n v="-110.90575253357839"/>
+    <n v="-17.117857419369841"/>
+    <n v="544.11649060893103"/>
+    <n v="6.9757845938826648"/>
+    <n v="228.43317360854391"/>
+    <n v="-115.918065294763"/>
   </r>
   <r>
     <x v="160"/>
@@ -7579,8 +7582,8 @@
     <n v="5.0063759630925997"/>
     <n v="-93.735230362971691"/>
     <n v="0.63287813423028894"/>
-    <n v="59.519717210395441"/>
-    <n v="40.876439941485643"/>
+    <n v="57.655389483504457"/>
+    <n v="42.74076766837662"/>
   </r>
   <r>
     <x v="161"/>
@@ -7595,8 +7598,8 @@
     <n v="2.9492716931106862"/>
     <n v="-34.365827545374458"/>
     <n v="0.69483499809651761"/>
-    <n v="61.364936935831729"/>
-    <n v="40.961166173839139"/>
+    <n v="59.324559859632473"/>
+    <n v="43.001543250038402"/>
   </r>
   <r>
     <x v="162"/>
@@ -7714,7 +7717,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Draaitabel1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Draaitabel1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A1:D165" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -8415,7 +8418,7 @@
     <dataField name="Som van spike" fld="7" baseField="0" baseItem="6"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12605,7 +12608,7 @@
         <v>-3.7143296743339178</v>
       </c>
       <c r="D36" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -12927,7 +12930,7 @@
         <v>-9.5389496206809739</v>
       </c>
       <c r="D59" s="7">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -13039,7 +13042,7 @@
         <v>31.37501501882252</v>
       </c>
       <c r="D67" s="7">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -13935,7 +13938,7 @@
         <v>-2.1575215257785199</v>
       </c>
       <c r="D131" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -14117,7 +14120,7 @@
         <v>32.792941740517122</v>
       </c>
       <c r="D144" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -14282,10 +14285,10 @@
         <v>39.717895543374922</v>
       </c>
       <c r="C156" s="7">
-        <v>35.841392541400978</v>
+        <v>48.341392541400978</v>
       </c>
       <c r="D156" s="7">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -14296,7 +14299,7 @@
         <v>41.190477879574622</v>
       </c>
       <c r="C157" s="7">
-        <v>32.123415232300033</v>
+        <v>57.123415232299983</v>
       </c>
       <c r="D157" s="7">
         <v>0</v>
@@ -14307,10 +14310,10 @@
         <v>27.75</v>
       </c>
       <c r="B158" s="7">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C158" s="7">
-        <v>38.312436696852217</v>
+        <v>50.812436696852217</v>
       </c>
       <c r="D158" s="7">
         <v>0</v>
@@ -14321,10 +14324,10 @@
         <v>28</v>
       </c>
       <c r="B159" s="7">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C159" s="7">
-        <v>40.703405201760461</v>
+        <v>53.203405201760432</v>
       </c>
       <c r="D159" s="7">
         <v>0</v>
@@ -14338,7 +14341,7 @@
         <v>47.341373364459344</v>
       </c>
       <c r="C160" s="7">
-        <v>37.528181568294713</v>
+        <v>62.528181568294599</v>
       </c>
       <c r="D160" s="7">
         <v>0</v>
@@ -14352,7 +14355,7 @@
         <v>49.281769563007813</v>
       </c>
       <c r="C161" s="7">
-        <v>43.757554156890478</v>
+        <v>56.257554156890478</v>
       </c>
       <c r="D161" s="7">
         <v>0</v>
@@ -14399,13 +14402,13 @@
         <v>3</v>
       </c>
       <c r="B165" s="7">
-        <v>1849.4600607619097</v>
+        <v>1949.4600607619097</v>
       </c>
       <c r="C165" s="7">
-        <v>1849.7893320216704</v>
+        <v>1949.7893320216699</v>
       </c>
       <c r="D165" s="7">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
